--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7701,6 +7701,181 @@
         <v>0</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>41678378000000</v>
+      </c>
+      <c r="D291" t="n">
+        <v>41678378000000</v>
+      </c>
+      <c r="E291" t="n">
+        <v>41678378000000</v>
+      </c>
+      <c r="F291" t="n">
+        <v>41678378000000</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>42206471000000</v>
+      </c>
+      <c r="D292" t="n">
+        <v>42206471000000</v>
+      </c>
+      <c r="E292" t="n">
+        <v>42206471000000</v>
+      </c>
+      <c r="F292" t="n">
+        <v>42206471000000</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>41767936000000</v>
+      </c>
+      <c r="D293" t="n">
+        <v>41767936000000</v>
+      </c>
+      <c r="E293" t="n">
+        <v>41767936000000</v>
+      </c>
+      <c r="F293" t="n">
+        <v>41767936000000</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>42100727000000</v>
+      </c>
+      <c r="D294" t="n">
+        <v>42100727000000</v>
+      </c>
+      <c r="E294" t="n">
+        <v>42100727000000</v>
+      </c>
+      <c r="F294" t="n">
+        <v>42100727000000</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>41265420000000</v>
+      </c>
+      <c r="D295" t="n">
+        <v>41265420000000</v>
+      </c>
+      <c r="E295" t="n">
+        <v>41265420000000</v>
+      </c>
+      <c r="F295" t="n">
+        <v>41265420000000</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>40642084000000</v>
+      </c>
+      <c r="D296" t="n">
+        <v>40642084000000</v>
+      </c>
+      <c r="E296" t="n">
+        <v>40642084000000</v>
+      </c>
+      <c r="F296" t="n">
+        <v>40642084000000</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="D297" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="E297" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="F297" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7876,6 +7876,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="D298" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="E298" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="F298" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7901,6 +7901,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="D299" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="E299" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="F299" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G299"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7926,6 +7926,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="D300" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="E300" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="F300" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7951,6 +7951,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="D301" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="E301" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="F301" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7976,6 +7976,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="D302" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="E302" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="F302" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8001,6 +8001,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="D303" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="E303" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="F303" t="n">
+        <v>41806284000000</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>40809168000000</v>
+      </c>
+      <c r="D304" t="n">
+        <v>40809168000000</v>
+      </c>
+      <c r="E304" t="n">
+        <v>40809168000000</v>
+      </c>
+      <c r="F304" t="n">
+        <v>40809168000000</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>41684045000000</v>
+      </c>
+      <c r="D305" t="n">
+        <v>41684045000000</v>
+      </c>
+      <c r="E305" t="n">
+        <v>41684045000000</v>
+      </c>
+      <c r="F305" t="n">
+        <v>41684045000000</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="D306" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="E306" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="F306" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8101,6 +8101,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNCBBS</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="D307" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="E307" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="F307" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8126,6 +8126,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="D308" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="E308" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="F308" t="n">
+        <v>42735489000000</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7564,6 +7564,9 @@
       <c r="A312" s="2">
         <v>45230</v>
       </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
       <c r="C312">
         <v>43325980000000</v>
       </c>
@@ -7577,6 +7580,26 @@
         <v>43325980000000</v>
       </c>
       <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="2">
+        <v>45230</v>
+      </c>
+      <c r="C313">
+        <v>43325980000000</v>
+      </c>
+      <c r="D313">
+        <v>43325980000000</v>
+      </c>
+      <c r="E313">
+        <v>43325980000000</v>
+      </c>
+      <c r="F313">
+        <v>43325980000000</v>
+      </c>
+      <c r="G313">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7587,6 +7587,9 @@
       <c r="A313" s="2">
         <v>45230</v>
       </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
       <c r="C313">
         <v>43325980000000</v>
       </c>
@@ -7600,6 +7603,95 @@
         <v>43325980000000</v>
       </c>
       <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314">
+        <v>43325980000000</v>
+      </c>
+      <c r="D314">
+        <v>43325980000000</v>
+      </c>
+      <c r="E314">
+        <v>43325980000000</v>
+      </c>
+      <c r="F314">
+        <v>43325980000000</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315">
+        <v>43325980000000</v>
+      </c>
+      <c r="D315">
+        <v>43325980000000</v>
+      </c>
+      <c r="E315">
+        <v>43325980000000</v>
+      </c>
+      <c r="F315">
+        <v>43325980000000</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>43325980000000</v>
+      </c>
+      <c r="D316">
+        <v>43325980000000</v>
+      </c>
+      <c r="E316">
+        <v>43325980000000</v>
+      </c>
+      <c r="F316">
+        <v>43325980000000</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="2">
+        <v>45230</v>
+      </c>
+      <c r="C317">
+        <v>43325980000000</v>
+      </c>
+      <c r="D317">
+        <v>43325980000000</v>
+      </c>
+      <c r="E317">
+        <v>43325980000000</v>
+      </c>
+      <c r="F317">
+        <v>43325980000000</v>
+      </c>
+      <c r="G317">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/CNCBBS.xlsx
+++ b/GlobalReserves/BalSheets/CNCBBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7679,6 +7679,9 @@
       <c r="A317" s="2">
         <v>45230</v>
       </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
       <c r="C317">
         <v>43325980000000</v>
       </c>
@@ -7692,6 +7695,210 @@
         <v>43325980000000</v>
       </c>
       <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318">
+        <v>43325980000000</v>
+      </c>
+      <c r="D318">
+        <v>43325980000000</v>
+      </c>
+      <c r="E318">
+        <v>43325980000000</v>
+      </c>
+      <c r="F318">
+        <v>43325980000000</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319">
+        <v>44065463000000</v>
+      </c>
+      <c r="D319">
+        <v>44065463000000</v>
+      </c>
+      <c r="E319">
+        <v>44065463000000</v>
+      </c>
+      <c r="F319">
+        <v>44065463000000</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320">
+        <v>44065463000000</v>
+      </c>
+      <c r="D320">
+        <v>44065463000000</v>
+      </c>
+      <c r="E320">
+        <v>44065463000000</v>
+      </c>
+      <c r="F320">
+        <v>44065463000000</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321">
+        <v>44065463000000</v>
+      </c>
+      <c r="D321">
+        <v>44065463000000</v>
+      </c>
+      <c r="E321">
+        <v>44065463000000</v>
+      </c>
+      <c r="F321">
+        <v>44065463000000</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322">
+        <v>44065463000000</v>
+      </c>
+      <c r="D322">
+        <v>44065463000000</v>
+      </c>
+      <c r="E322">
+        <v>44065463000000</v>
+      </c>
+      <c r="F322">
+        <v>44065463000000</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323">
+        <v>44065463000000</v>
+      </c>
+      <c r="D323">
+        <v>44065463000000</v>
+      </c>
+      <c r="E323">
+        <v>44065463000000</v>
+      </c>
+      <c r="F323">
+        <v>44065463000000</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324">
+        <v>44065463000000</v>
+      </c>
+      <c r="D324">
+        <v>44065463000000</v>
+      </c>
+      <c r="E324">
+        <v>44065463000000</v>
+      </c>
+      <c r="F324">
+        <v>44065463000000</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325">
+        <v>44065463000000</v>
+      </c>
+      <c r="D325">
+        <v>44065463000000</v>
+      </c>
+      <c r="E325">
+        <v>44065463000000</v>
+      </c>
+      <c r="F325">
+        <v>44065463000000</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="2">
+        <v>45257</v>
+      </c>
+      <c r="C326">
+        <v>44065463000000</v>
+      </c>
+      <c r="D326">
+        <v>44065463000000</v>
+      </c>
+      <c r="E326">
+        <v>44065463000000</v>
+      </c>
+      <c r="F326">
+        <v>44065463000000</v>
+      </c>
+      <c r="G326">
         <v>0</v>
       </c>
     </row>
